--- a/finetuning/it_datasets/qa_dataset/qa_it_el alia_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_el alia_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,12 +672,54 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a delightful cafe experience, come to Venezia, located at 52CM+448 Venezia, Av. Habib Bourguiba, El Alia. With a rating of 4.3, this top-rated destination is perfect for Cafe lovers and is open daily from 04:00-00:00. For more details, call them at 52 705 807.</t>
+          <t>Venezia is a popular Cafe located in el alia at the coordinates (37.1701233, 10.0328689). 
+It has a rating of 4.3 and operates during the following hours: 04:00-00:00.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated café with extended hours in the El Alia neighborhood?</t>
+          <t>Day Plan:
+Morning: Exploring El Alia Marina
+Mid-Morning: Trying local cuisine at Restaurant Tawfik &amp; Riadh
+Midday: Visiting Cimetriere d'El Alia
+Afternoon: Relaxing with a coffee and pastries at Cafe Joker
+Evening: Enjoying scenic views at Peage El Alia
+Night: Experiencing cultural immersion at Agence de voyages EL Alia</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Joker is a popular cafe located at 528H+9VP Avenue Farhat Hached in El Alia, Tunisia. It offers a variety of coffee and tea drinks, as well as a selection of pastries and snacks. Cafe Joker is open from 5:00 AM to 12:00 PM, and is closed on Sundays. The cafe has received a 4.4-star rating out of 7 reviews on Google, and is known for its friendly service and relaxed atmosphere.
+Restaurant Tawfik &amp; Riadh is a well-rated restaurant located in El Alia, Tunisia. It offers a variety of dishes and is open from 6:30 AM to 2 PM. The restaurant is located at 52CG+JXV, Av. Habib Bourguiba, El Alia and can be contacted at 94 151 748.
+Cafe Vienne is a tea room located in El Alia, Tunisia (37.1680428, 10.0351974). It is open every day from 5am to midnight and offers a variety of teas and other beverages. The tea room has a 4.8 rating on Google and is particularly appreciated for its friendly atmosphere and its delicious pastries.
+"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -774,12 +821,54 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a great restaurant, check out Aliana Restaurant located at Aliana Restaurant, El Alia. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8923939, 35.5426177. For more details, visit their link at https://www.google.com/maps/place/Aliana+Restaurant/data=!4m7!3m6!1s0x12e2dd3620a9b67f:0xd9e6f07d19a95614!8m2!3d37.1705276!4d10.0328605!16s%2Fg%2F11j2xk5gt6!19sChIJf7apIDbd4hIRFFapGX3w5tk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 349 082.</t>
+          <t>Aliana Restaurant is situated at El Alia, Lebanon, it's coordinates are (33.8923939, 35.5426177). The restaurant has received a 4.0 rating based on 12 reviews. It serves various cuisines and is popular for its ambiance and service.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where in El Alia can you indulge in a top-rated culinary experience at Aliana Restaurant, known for its exceptional offerings?</t>
+          <t>Day Plan:
+Morning: Exploring El Alia Marina (Enjoy scenic views of the Mediterranean Sea and embark on a leisurely stroll along the promenade.)
+Mid-Morning: Trying local cuisine at Aliana Restaurant (Savor authentic Lebanese dishes renowned for their fresh ingredients and flavorful spices.)
+Midday: Visiting Cimetriere d'El Alia (Explore the historic cemetery and appreciate the intricately carved mausoleums that reflect the region's rich cultural heritage.)
+Afternoon: Enjoying recreational activities at Seventy Four 74 (Indulge in delightful tea and pastries while enjoying the vibrant ambiance of this highly-rated tea room.)
+Evening: Shopping at Agence de Voyages EL Alia (Stroll through the aisles of this local travel agency and discover a wide range of travel souvenirs and handicrafts.)
+Night: Relaxing with a traditional Hammam experience at a nearby spa or hotel (Experience the rejuvenating benefits of a traditional Moroccan bath, complete with steam, exfoliation, and massage.)</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Venezia is a popular Cafe located in el alia at the coordinates (37.1701233, 10.0328689). 
+It has a rating of 4.3 and operates during the following hours: 04:00-00:00.
+Aliana Restaurant is situated at El Alia, Lebanon, it's coordinates are (33.8923939, 35.5426177). The restaurant has received a 4.0 rating based on 12 reviews. It serves various cuisines and is popular for its ambiance and service.
+Seventy Four 74 is a popular tea room located in El Alia. With a 5.0 rating based on 7 reviews, it's a highly-rated destination. Open from 6am to midnight daily, it's conveniently located at Av. Habib Bourguiba.
+"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -885,14 +974,53 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something fun to do, check out salon de the 8eme art located at C70, El Alia. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.1680428, 10.0351974. For more details, visit their website or call them at 46 501 410.</t>
+          <t>Located in El Alia, "Salon de Thé 8ème Art" is a highly-rated cafe (4.3/5 stars from 8 reviews) with a cozy atmosphere. Open 24 hours a day, it's a great spot for locals and tourists alike to enjoy a cup of coffee, tea, or a bite to eat. The cafe also offers free Wi-Fi and has a friendly staff.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe destination with a rating of 4.3 that offers a range of cafe options in the El Alia neighborhood?</t>
+          <t>Day Plan:
+Morning: Get an early start and explore the lively Cafe El Alia. Indulge in a cup of aromatic coffee and local pastries while soaking up the vibrant atmosphere.
+Mid-Morning: Head to Cimetriere d'El Alia for a peaceful stroll amidst historical graves. Reflect on the past and pay respects to the departed souls.
+Midday: Savor a delightful Tunisian lunch at Restaurant Tawfik &amp; Riadh. Taste traditional flavors and enjoy the warm hospitality of the locals.
+Afternoon: Take a guided tour of Agence de voyages EL Alia and learn about the various travel options available in the region. Plan your next adventure or simply gain insights into the local tourism industry.
+Evening: Visit Cafe Vienne and indulge in a soothing tea experience. Sample a variety of teas and pastries while relishing the cozy ambiance and friendly atmosphere.
+Night: End the day with a scenic drive to El Alia, offering breathtaking views of the marina and its surroundings. Unwind and embrace the tranquility as you reflect on a fulfilling day filled with cultural immersion and local delights.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El Alia is a cafe located in el alia. It has a rating of 4.2, 13 reviews and offers a variety of services. The cafe is open from 04:00-00:00 and is closed on []. The cafe's main category is Cafe and its categories are ['Cafe']. The cafe's website is nan and its phone number is 25 832 004. The cafe's address is MFWR+3GM Cafe El Alia, place de l'independance, Soliman 8020. The cafe's coordinates are (36.739868, 10.5225008).
+Restaurant Tawfik &amp; Riadh is a well-rated restaurant located in El Alia, Tunisia. It offers a variety of dishes and is open from 6:30 AM to 2 PM. The restaurant is located at 52CG+JXV, Av. Habib Bourguiba, El Alia and can be contacted at 94 151 748.
+Cafe Vienne is a tea room located in El Alia, Tunisia (37.1680428, 10.0351974). It is open every day from 5am to midnight and offers a variety of teas and other beverages. The tea room has a 4.8 rating on Google and is particularly appreciated for its friendly atmosphere and its delicious pastries.
+**Chef Ayoub** is a fast food restaurant located in El Alia, Tunisia. It has a rating of 5.0 based on one review. The restaurant's phone number is 28 396 171, and its website is https://www.facebook.com/profile.php%3Fid%3D100055936977142.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -998,12 +1126,53 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something to do, check out Cafe Vienne located at 52HH+CPR Cafe Vienne, C70e, El Alia. This top-rated destination is perfect for Salon de the lovers. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 37.1680428, 10.0351974. For more details, call them at 20 297 383.</t>
+          <t>Cafe Vienne is a tea room located in El Alia, Tunisia (37.1680428, 10.0351974). It is open every day from 5am to midnight and offers a variety of teas and other beverages. The tea room has a 4.8 rating on Google and is particularly appreciated for its friendly atmosphere and its delicious pastries.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Question: Where in El Alia can you indulge in Salon de the at a renowned destination with exceptional ratings?</t>
+          <t>Day Plan:
+Morning: Exploring Aliana Restaurant
+Mid-Morning: Visiting El Alia marina
+Midday: Lunch at Chef Ayoub and relax at Cimetriere d'El Alia
+Afternoon: Trying local cuisine at Cafe Vienne
+Evening: Shopping at Agence de voyages EL Alia
+Night: Enjoying scenic views at Peage El Alia</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El Alia is a cafe located in el alia. It has a rating of 4.2, 13 reviews and offers a variety of services. The cafe is open from 04:00-00:00 and is closed on []. The cafe's main category is Cafe and its categories are ['Cafe']. The cafe's website is nan and its phone number is 25 832 004. The cafe's address is MFWR+3GM Cafe El Alia, place de l'independance, Soliman 8020. The cafe's coordinates are (36.739868, 10.5225008).
+Aliana Restaurant, located in el alia. It is a restaurant that offers a variety of dishes. The restaurant is well-rated, with a rating of 4.0 out of 5. It is open 7 days a week and can be contacted at 23 349 082.
+Cafe Vienne is a tea room located in El Alia, Tunisia (37.1680428, 10.0351974). It is open every day from 5am to midnight and offers a variety of teas and other beverages. The tea room has a 4.8 rating on Google and is particularly appreciated for its friendly atmosphere and its delicious pastries.
+**Chef Ayoub** is a fast food restaurant located in El Alia, Tunisia. It has a rating of 5.0 based on one review. The restaurant's phone number is 28 396 171, and its website is https://www.facebook.com/profile.php%3Fid%3D100055936977142.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1109,14 +1278,53 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something fun to do, check out Seventy Four 74 located at Av. Habib Bourguiba, El Alia. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on None. To get there, use these GPS coordinates: 37.170874214467, 10.0303565426. For more details, visit their website at  or call them at 54 455 228.</t>
+          <t>Seventy Four 74 is a popular tea room located in El Alia. With a 5.0 rating based on 7 reviews, it's a highly-rated destination. Open from 6am to midnight daily, it's conveniently located at Av. Habib Bourguiba.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where in el alia can you enjoy a highly-rated selection of Salon de the in a top-rated destination?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the bustling Cafe Joker, known for its delicious pastries and coffee.
+Mid-Morning: Visit the serene Cafe Vienne for a variety of teas and a relaxing ambiance.
+Midday: Indulge in authentic Moroccan cuisine at Restaurant et pizzeria SOLTan Fathi, rated 5.0 on Google.
+Afternoon: Embark on a guided tour of El Alia, a picturesque marina with stunning views.
+Evening: Experience cultural immersion at Cimetriere d'El Alia and learn about local history and traditions.
+Night: End the day with a scenic drive to Peage El Alia tollbooth, offering panoramic views of the surroundings.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Joker is a popular cafe located at 528H+9VP Avenue Farhat Hached in El Alia, Tunisia. It offers a variety of coffee and tea drinks, as well as a selection of pastries and snacks. Cafe Joker is open from 5:00 AM to 12:00 PM, and is closed on Sundays. The cafe has received a 4.4-star rating out of 7 reviews on Google, and is known for its friendly service and relaxed atmosphere.
+Restaurant et pizzeria SOLTan Fathi is a restaurant located in El Alia, Morocco. The restaurant offers a variety of dining options, including traditional Moroccan dishes and pizzas. The restaurant has a 5.0 rating on Google and is located at the coordinates (33.5910711, -7.5687025).
+Cafe Vienne is a tea room located in El Alia, Tunisia (37.1680428, 10.0351974). It is open every day from 5am to midnight and offers a variety of teas and other beverages. The tea room has a 4.8 rating on Google and is particularly appreciated for its friendly atmosphere and its delicious pastries.
+**Chef Ayoub** is a fast food restaurant located in El Alia, Tunisia. It has a rating of 5.0 based on one review. The restaurant's phone number is 28 396 171, and its website is https://www.facebook.com/profile.php%3Fid%3D100055936977142.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1222,12 +1430,60 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a great cafe, check out Cafe Joker located at 528H+9VP Cafe Joker, Avenue Farhat Hached, El Alia. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe options to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 05:00-12:00, but closed on []. To get there, use these GPS coordinates: 37.1680428, 10.0351974. For more details, visit their website at https://www.google.com/maps/place/Cafe+Joker/data=!4m7!3m6!1s0x12e2dc53f1f34a73:0x9bd6e01d3fc36db6!8m2!3d37.1659611!4d10.0297167!16s%2Fg%2F11cp7pmq54!19sChIJc0rz8VPc4hIRtm3DPx3g1ps?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 631 143.</t>
+          <t>Cafe Joker is a popular cafe located at 528H+9VP Avenue Farhat Hached in El Alia, Tunisia. It offers a variety of coffee and tea drinks, as well as a selection of pastries and snacks. Cafe Joker is open from 5:00 AM to 12:00 PM, and is closed on Sundays. The cafe has received a 4.4-star rating out of 7 reviews on Google, and is known for its friendly service and relaxed atmosphere.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a wide selection of options in El Alia, known for its exceptional atmosphere?</t>
+          <t>Day Plan:
+Morning:
+- Explore the El Alia marina, rated 4.6, for stunning waterfront views.
+Mid-Morning:
+- Visit the Cafe Vienne for a delightful tea and pastry experience, earning a 4.8 rating for its ambiance and delectable offerings.
+Midday:
+- Immerse yourself in local cuisine at Restaurant Tawfik &amp; Riadh, known for its 4.5-star rating and authentic Tunisian flavors.
+Afternoon:
+- Embark on a guided tour of the Cimetriere d'El Alia cemetery to gain insights into the local culture and history.
+Evening:
+- Indulge in a memorable dining experience at "Chef Ayoub," highly rated with 5.0 stars for its exquisite fast food creations.
+Night:
+- Take a peaceful stroll through the picturesque streets of El Alia, soaking in the charming ambiance and local life.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Venezia is a popular Cafe located in el alia at the coordinates (37.1701233, 10.0328689). 
+It has a rating of 4.3 and operates during the following hours: 04:00-00:00.
+Restaurant Tawfik &amp; Riadh located in el alia (lon: 44.195835, lat: 15.350061) is a 4.5 stars rated restaurant, open from 06:30 am to 02 pm, and closed on none of the days of the week.
+Cafe Vienne is a tea room located in El Alia, Tunisia (37.1680428, 10.0351974). It is open every day from 5am to midnight and offers a variety of teas and other beverages. The tea room has a 4.8 rating on Google and is particularly appreciated for its friendly atmosphere and its delicious pastries.
+"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1581,53 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a great Cafe, check out Cafe YABBA located at 528M+P72 Cafe YABBA, Rue du Maghrebe Arabe, El Alia. This top-rated Cafe is a must-visit spot with a rating of 4.5. It's open during these hours: 05:30-23:00. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+YABBA/data=!4m7!3m6!1s0x12e2dc544d53b6db:0x726879fd910e44cb!8m2!3d37.1667503!4d10.0331539!16s%2Fg%2F11hcqf_p_4!19sChIJ27ZTTVTc4hIRy0QOkf15aHI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Café YABBA is a café located at Rue du Maghrebe Arabe, El Alia, Morocco. It is known for its cozy atmosphere and delicious coffee. The café offers a variety of coffee drinks, as well as pastries and other snacks. It is a popular spot for locals and tourists alike. The café is open from 5:30am to 11:00pm, seven days a week.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe named Cafe YABBA with a 4.5-star rating in El Alia?</t>
+          <t>Day Plan:
+Morning: Explore the scenic El Alia Marina, known for its picturesque views and tranquil atmosphere.
+Mid-Morning: Try local cuisine at Restaurant Tawfik &amp; Riadh, known for its authentic Tunisian flavors and inviting ambiance.
+Midday: Visit the Chef Ayoub fast food restaurant for a delectable and affordable lunch option.
+Afternoon: Enjoy a refreshing afternoon tea at the highly-rated Seventy Four 74 tea room, known for its cozy atmosphere and wide selection of teas.
+Evening: Engage in cultural immersion at the Cimetriere d'El Alia cemetery, where you can learn about local traditions and explore the serene surroundings.
+Night: Experience the vibrant atmosphere of the Peage El Alia tollbooth, where you can mingle with locals and witness the bustling nightlife.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Cafe Aziz is located in el alia, Tunisia (37.1680428, 10.0351974). It has a 4.5 rating based on 2 reviews and its main category is Cafe.
+Restaurant Tawfik &amp; Riadh located in el alia (lon: 44.195835, lat: 15.350061) is a 4.5 stars rated restaurant, open from 06:30 am to 02 pm, and closed on none of the days of the week.
+Seventy Four 74 is a popular tea room located in El Alia. With a 5.0 rating based on 7 reviews, it's a highly-rated destination. Open from 6am to midnight daily, it's conveniently located at Av. Habib Bourguiba.
+"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1436,14 +1733,53 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something fun to do, check out Le Kafee 7016 located at 52CH+CVX Le Kafee 7016, Av. Habib Bourguiba, El Alia. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:00-22:00. To get there, use these GPS coordinates: 37.170874214467, 10.0303565426. For more details, visit their website at https://www.google.com/maps/place/Le+Kafee+7016/data=!4m7!3m6!1s0x12e2dd76a917eb45:0xdd164f48fae52d36!8m2!3d37.1711017!4d10.0297425!16s%2Fg%2F11q22h3r8k!19sChIJResXqXbd4hIRNi3l-khPFt0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 428 647.</t>
+          <t>"Le Kafee 7016" is a cafe located in el alia, Tunisia. Its coordinates are (37.170874214467, 10.0303565426). The cafe is open from 4:00 am to 10:00 pm, and it is closed on Thursdays. It has a rating of 5.0 stars out of 5 based on 5 reviews.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>If you're in El Alia and crave a cozy cafe experience, where can you find a highly-rated spot with a wide selection of Cafe options?</t>
+          <t>Day Plan:
+Morning: Exploring the marina at El Alia
+Mid-Morning: Trying local cuisine at "Chef Ayoub"
+Midday: Visiting the Cimetriere d'El Alia
+Afternoon: Enjoying scenic views at the Peage El Alia
+Evening: Shopping at Agence de voyages EL Alia
+Night: Relaxing with a cup of tea at Cafe Vienne</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+S'cool Cafeteria is a 5-star cafe, located in El Alia (lon: 10.0351974, lat: 37.1680428).
+Restaurant et pizzeria SOLTan Fathi is a restaurant located in El Alia, Morocco. The restaurant offers a variety of dining options, including traditional Moroccan dishes and pizzas. The restaurant has a 5.0 rating on Google and is located at the coordinates (33.5910711, -7.5687025).
+Cafe Vienne is a tea room located in El Alia, Tunisia (37.1680428, 10.0351974). It is open every day from 5am to midnight and offers a variety of teas and other beverages. The tea room has a 4.8 rating on Google and is particularly appreciated for its friendly atmosphere and its delicious pastries.
+"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1537,12 +1873,53 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a great Cafe, check out Cafe Dali mqh~ ldly at 52CM+726. Cafe lovers will delight in its range of offerings. With a rating of 4.0, it's highly recommended. To plan your visit, refer to these coordinates: 37.1680428, 10.0351974. You may also visit their website at https://www.google.com/maps/place/Cafe+Dali+%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%AF%D8%A7%D9%84%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12e2ddab31cbdebf:0xf92641254dd6c898!8m2!3d37.1706531!4d10.032517!16s%2Fg%2F11bztb24l5!19sChIJv97LMavd4hIRmMjWTSVBJvk?authuser=0&amp;hl=fr&amp;rclk=1 for more information.</t>
+          <t>Cafe Dali mqh~ ldly is a cafe situated in el alia, Tunisia. It is located at the coordinates (37.1680428, 10.0351974) and offers a variety of amenities, including a welcoming atmosphere and delicious food and drinks.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe with a wide range of offerings located in El Alia?</t>
+          <t>Day Plan:
+Morning: Explore El Alia by visiting the El Alia Marina, enjoying scenic views, and admiring the local boats.
+Mid-Morning: Try local cuisine at Cafe Nassim, known for its 5-star service and convenient 24-hour opening time.
+Midday: Visit the Cimetriere d'El Alia, a tranquil cemetery with historical significance.
+Afternoon: Engage in outdoor activities like hiking or cycling at a nearby park or trail.
+Evening: Shop for local souvenirs and artisanal crafts at a market or mall in El Alia.
+Night: Experience cultural immersion at Aliana Restaurant, known for its variety of dishes and authentic ambiance.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Nassim is a cafe located in El Alia. It offers a 5-star service, along with a convenient 24h opening time. Its exact location is (37.1680428, 10.0351974).
+Aliana Restaurant, located in el alia. It is a restaurant that offers a variety of dishes. The restaurant is well-rated, with a rating of 4.0 out of 5. It is open 7 days a week and can be contacted at 23 349 082.
+Seventy Four 74 is a popular tea room located in El Alia. With a 5.0 rating based on 7 reviews, it's a highly-rated destination. Open from 6am to midnight daily, it's conveniently located at Av. Habib Bourguiba.
+"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1648,13 +2025,53 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a great cafe, check out Cafe Aziz located at 6X23+QFF Cafe Aziz, C70, El Alia. 
-This top-rated destination is perfect for cafe lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 37.1680428, 10.0351974. For more details, call them at 29 800 307.</t>
+          <t>The Cafe Aziz is located in el alia, Tunisia (37.1680428, 10.0351974). It has a 4.5 rating based on 2 reviews and its main category is Cafe.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where can you find a must-visit cafe with top ratings in El Alia, known for its cafe scene?</t>
+          <t>Day Plan:
+Morning: Explore El Alia by taking a guided tour of the Cimetriere d'El Alia cemetery to learn about the local history and culture.
+Mid-Morning: Visit the El Alia marina for a scenic walk and enjoy the beautiful views.
+Midday: Try local cuisine at Restaurant Tawfik &amp; Riadh for a delicious and authentic Tunisian meal.
+Afternoon: Relax by enjoying a cup of tea or other beverages at the highly-rated Cafe Vienne, known for its friendly atmosphere and delicious pastries.
+Evening: Visit Agence de voyages EL Alia to plan your future travel adventures and explore the services they offer.
+Night: Experience Chef Ayoub's highly-rated fast food for a casual and satisfying dinner.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Cafe Aziz is located in el alia, Tunisia (37.1680428, 10.0351974). It has a 4.5 rating based on 2 reviews and its main category is Cafe.
+Restaurant Tawfik &amp; Riadh is a well-rated restaurant located in El Alia, Tunisia. It offers a variety of dishes and is open from 6:30 AM to 2 PM. The restaurant is located at 52CG+JXV, Av. Habib Bourguiba, El Alia and can be contacted at 94 151 748.
+Cafe Vienne is a tea room located in El Alia, Tunisia (37.1680428, 10.0351974). It is open every day from 5am to midnight and offers a variety of teas and other beverages. The tea room has a 4.8 rating on Google and is particularly appreciated for its friendly atmosphere and its delicious pastries.
+**Chef Ayoub** is a fast food restaurant located in El Alia, Tunisia. It has a rating of 5.0 based on one review. The restaurant's phone number is 28 396 171, and its website is https://www.facebook.com/profile.php%3Fid%3D100055936977142.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1752,12 +2169,53 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a top-rated Cafe spot, check out Cafe Nassim located at 529M+8C Cafe Nassim, El Alia. With a rating of 5.0, this must-visit destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 37.1680428, 10.0351974.</t>
+          <t>Cafe Nassim is a cafe located in El Alia. It offers a 5-star service, along with a convenient 24h opening time. Its exact location is (37.1680428, 10.0351974).</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe open around the clock in El Alia?</t>
+          <t>Day Plan:
+Morning: Exploring El Alia Marina
+Mid-Morning: Trying local cuisine at Restaurant Tawfik &amp; Riadh
+Midday: Visiting Cimetriere d'El Alia
+Afternoon: Enjoying a tea at Cafe Nassim
+Evening: Participating in a guided tour of Agence de voyages EL Alia
+Night: Relaxing with a drink at Cafe Vienne</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Nassim is a cafe located in El Alia. It offers a 5-star service, along with a convenient 24h opening time. Its exact location is (37.1680428, 10.0351974).
+Restaurant Tawfik &amp; Riadh is a well-rated restaurant located in El Alia, Tunisia. It offers a variety of dishes and is open from 6:30 AM to 2 PM. The restaurant is located at 52CG+JXV, Av. Habib Bourguiba, El Alia and can be contacted at 94 151 748.
+Cafe Vienne is a tea room located in El Alia, Tunisia (37.1680428, 10.0351974). It is open every day from 5am to midnight and offers a variety of teas and other beverages. The tea room has a 4.8 rating on Google and is particularly appreciated for its friendly atmosphere and its delicious pastries.
+"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1863,12 +2321,59 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you find yourself in el alia and in search of a delicious meal, head on over to Restaurant Tawfik &amp; Riadh located at 52CG+JXV, Av. Habib Bourguiba, El Alia. This highly-rated establishment with a 4.5 rating is perfect for food enthusiasts and offers a variety of dining options. Open from 06:30-14:00, it's a must-visit spot. For further information, visit their website at https://www.google.com/maps/place/Restaurant+Tawfik+%26+Riadh/data=!4m7!3m6!1s0x12e2ddfbe9f908d7:0xf899609d396ee61d!8m2!3d37.1716142!4d10.0274076!16s%2Fg%2F11s8w97kjs!19sChIJ1wj56fvd4hIRHeZuOZ1gmfg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 94 151 748.</t>
+          <t>Restaurant Tawfik &amp; Riadh is a well-rated restaurant located in El Alia, Tunisia. It offers a variety of dishes and is open from 6:30 AM to 2 PM. The restaurant is located at 52CG+JXV, Av. Habib Bourguiba, El Alia and can be contacted at 94 151 748.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a 4.5 rating in El Alia, offering exceptional dining options and a convenient location?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the stunning marina of El Alia (El Alia)
+**Mid-Morning:**
+- Indulge in local cuisine at Restaurant Tawfik &amp; Riadh (El Alia)
+**Midday:**
+- Visit the peaceful Cimetriere d'El Alia cemetery (El Alia)
+**Afternoon:**
+- Enjoy scenic views at Peage El Alia tollbooth (El Alia)
+**Evening:**
+- Experience the warm ambiance of Cafe Nassim (El Alia)
+**Night:**
+- Relax with tea and pastries at Cafe Vienne (El Alia)</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Nassim is a cafe located in El Alia. It offers a 5-star service, along with a convenient 24h opening time. Its exact location is (37.1680428, 10.0351974).
+Restaurant Tawfik &amp; Riadh is a well-rated restaurant located in El Alia, Tunisia. It offers a variety of dishes and is open from 6:30 AM to 2 PM. The restaurant is located at 52CG+JXV, Av. Habib Bourguiba, El Alia and can be contacted at 94 151 748.
+Cafe Vienne is a tea room located in El Alia, Tunisia (37.1680428, 10.0351974). It is open every day from 5am to midnight and offers a variety of teas and other beverages. The tea room has a 4.8 rating on Google and is particularly appreciated for its friendly atmosphere and its delicious pastries.
+"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1966,12 +2471,54 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in el alia, check out Oskar located at 5246+23R Oskar, et Khetmine, Route entre, El Alia. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.13453, 9.96924. For more details, visit their website at https://www.google.com/maps/place/Oskar/data=!4m7!3m6!1s0x12e2dddbad1b5735:0xe25a6c72602026fc!8m2!3d37.1551041!4d10.0101398!16s%2Fg%2F11sbw34plm!19sChIJNVcbrdvd4hIR_CYgYHJsWuI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>"Oskar" is a 5-star rated cafe located in el alia, Tunisia, at the coordinates (37.13453, 9.96924). Featuring a cozy atmosphere, delicious coffee, and a friendly owner named Oskar, this hidden gem is the perfect spot for those seeking a relaxing and enjoyable coffee experience.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe in El Alia, known for its exceptional quality, as indicated by its 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring El Alia Marina (Relaxing with Scenic Views)
+Mid-Morning: Trying local cuisine at Restaurant et pizzeria SOLTan Fathi (Trying Local Cuisine)
+Midday: Visiting Cimetriere d'El Alia (Visiting Landmark)
+Afternoon: Enjoying a guided tour of Agence de voyages EL Alia (Taking a Guided Tour)
+Evening: Shopping at a local market or mall (Shopping)
+Night: Enjoying scenic views at El Alia Marina (Relaxing with Scenic Views)</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Venezia is a popular Cafe located in el alia at the coordinates (37.1701233, 10.0328689). 
+It has a rating of 4.3 and operates during the following hours: 04:00-00:00.
+Restaurant et pizzeria SOLTan Fathi is a restaurant located in El Alia, Morocco. The restaurant offers a variety of dining options, including traditional Moroccan dishes and pizzas. The restaurant has a 5.0 rating on Google and is located at the coordinates (33.5910711, -7.5687025).
+Cafe Vienne is a tea room located in El Alia, Tunisia (37.1680428, 10.0351974). It is open every day from 5am to midnight and offers a variety of teas and other beverages. The tea room has a 4.8 rating on Google and is particularly appreciated for its friendly atmosphere and its delicious pastries.
+**Chef Ayoub** is a fast food restaurant located in El Alia, Tunisia. It has a rating of 5.0 based on one review. The restaurant's phone number is 28 396 171, and its website is https://www.facebook.com/profile.php%3Fid%3D100055936977142.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2077,12 +2624,53 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in El Alia and craving a great vibe, visit S'cool Cafeteria at 52CH+M73. This top-rated cafe serves up an amazing range of cafe options, with a rating of 5.0. It's open from 06:00-23:00 daily. For more details, visit their website or call them at 20 193 550.</t>
+          <t>S'cool Cafeteria is a 5-star cafe, located in El Alia (lon: 10.0351974, lat: 37.1680428).</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Which vibrant cafe in El Alia, with a stellar rating of 5.0, offers an exceptional range of cafe options and welcomes patrons from 6:00 AM to 11:00 PM every day?</t>
+          <t>Day Plan:
+Morning: Explore Cafe Nassim for breakfast and enjoy its 5-star service.
+Mid-Morning: Take a guided tour of El Alia Marina.
+Midday: Try local cuisine at Restaurant Tawfik &amp; Riadh.
+Afternoon: Visit Cimetriere d'El Alia for a glimpse of local history and culture.
+Evening: Relax with a scenic sunset walk along the beach at Peage El Alia.
+Night: Experience cultural immersion at the Seventy Four 74 tea room, known for its authentic ambiance and traditional offerings.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Nassim is a cafe located in El Alia. It offers a 5-star service, along with a convenient 24h opening time. Its exact location is (37.1680428, 10.0351974).
+Restaurant Tawfik &amp; Riadh is a well-rated restaurant located in El Alia, Tunisia. It offers a variety of dishes and is open from 6:30 AM to 2 PM. The restaurant is located at 52CG+JXV, Av. Habib Bourguiba, El Alia and can be contacted at 94 151 748.
+Seventy Four 74 is a popular tea room located in El Alia. With a 5.0 rating based on 7 reviews, it's a highly-rated destination. Open from 6am to midnight daily, it's conveniently located at Av. Habib Bourguiba.
+**Chef Ayoub** is a fast food restaurant located in El Alia, Tunisia. It has a rating of 5.0 based on one review. The restaurant's phone number is 28 396 171, and its website is https://www.facebook.com/profile.php%3Fid%3D100055936977142.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2184,12 +2772,53 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a top-rated restaurant, check out Restaurant et pizzeria SOLTan Fathi located at 528H+8XJ Restaurant et pizzeria SOLTan Fathi, El Alia. This 5.0-rated destination is perfect for restaurant lovers. To get there, use these GPS coordinates: 33.5910711, -7.5687025. For more details, visit their website or call them at 28 396 171.</t>
+          <t>Restaurant et pizzeria SOLTan Fathi is a restaurant located in El Alia, Morocco. The restaurant offers a variety of dining options, including traditional Moroccan dishes and pizzas. The restaurant has a 5.0 rating on Google and is located at the coordinates (33.5910711, -7.5687025).</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>What is the top-rated restaurant in El Alia with a 5.0 rating and the exact location to visit or contact?</t>
+          <t>Day Plan:
+Morning: Explore El Alia Marina, enjoying scenic views and taking a guided tour to learn about its history.
+Mid-Morning: Indulge in local cuisine at S'cool Cafeteria, renowned for its exquisite dishes and 5-star ambiance.
+Midday: Visit Cimetriere d'El Alia, a historic cemetery, to appreciate its cultural significance and serene atmosphere.
+Afternoon: Engage in outdoor activities at Peage El Alia, such as mountain climbing or biking, to soak up the natural beauty of the region.
+Evening: Relax at Cafe Vienne, a charming tea room known for its delectable pastries and cozy ambiance.
+Night: Experience cultural immersion at Agence de voyages EL Alia, where you can learn about local customs and engage in meaningful conversations with the locals.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+S'cool Cafeteria is a 5-star cafe, located in El Alia (lon: 10.0351974, lat: 37.1680428).
+Restaurant et pizzeria SOLTan Fathi is a restaurant located in el alia, Morocco. Its main category is Restaurant and it offers a range of dishes. The restaurant is highly rated, with a rating of 5.0 out of 5. It is located at the coordinates (33.5910711, -7.5687025).
+Cafe Vienne is a tea room located in El Alia, Tunisia (37.1680428, 10.0351974). It is open every day from 5am to midnight and offers a variety of teas and other beverages. The tea room has a 4.8 rating on Google and is particularly appreciated for its friendly atmosphere and its delicious pastries.
+**Chef Ayoub** is a fast food restaurant located in El Alia, Tunisia. It has a rating of 5.0 based on one review. The restaurant's phone number is 28 396 171, and its website is https://www.facebook.com/profile.php%3Fid%3D100055936977142.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2295,14 +2924,59 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something fun to do, check out chef Ayoub located at 529H+36F chef Ayoub, nhj ldktwr mHmwd lmTry,, El Alia. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1680428, 10.0351974. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100055936977142 or call them at 28 396 171.</t>
+          <t>**Chef Ayoub** is a fast food restaurant located in El Alia, Tunisia. It has a rating of 5.0 based on one review. The restaurant's phone number is 28 396 171, and its website is https://www.facebook.com/profile.php%3Fid%3D100055936977142.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated spot for Restauration rapide lovers in El Alia, complete with GPS coordinates and a website for further information?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the bustling El Alia marina, admiring the moored boats and soaking up the coastal atmosphere.
+**Mid-Morning:**
+- Try local cuisine at Restaurant et pizzeria SOLTan Fathi, savoring traditional Moroccan dishes and freshly baked pizzas.
+**Midday:**
+- Visit the Peage El Alia tollbooth, a unique landmark with panoramic views of the surrounding landscape.
+**Afternoon:**
+- Engage in outdoor activities at Cimetriere d'El Alia, taking a peaceful stroll amidst the serene surroundings.
+**Evening:**
+- Experience cultural immersion at Cafe El Alia, enjoying traditional ambiance and sampling authentic Algerian coffee.
+**Night:**
+- Relax with a soothing massage at a local spa or hotel, preparing for the adventures of the next day.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El Alia is a cafe located in el alia. It has a rating of 4.2, 13 reviews and offers a variety of services. The cafe is open from 04:00-00:00 and is closed on []. The cafe's main category is Cafe and its categories are ['Cafe']. The cafe's website is nan and its phone number is 25 832 004. The cafe's address is MFWR+3GM Cafe El Alia, place de l'independance, Soliman 8020. The cafe's coordinates are (36.739868, 10.5225008).
+Restaurant et pizzeria SOLTan Fathi is a restaurant located in El Alia, Morocco. The restaurant offers a variety of dining options, including traditional Moroccan dishes and pizzas. The restaurant has a 5.0 rating on Google and is located at the coordinates (33.5910711, -7.5687025).
+Cafe Vienne is a tea room located in El Alia, Tunisia (37.1680428, 10.0351974). It is open every day from 5am to midnight and offers a variety of teas and other beverages. The tea room has a 4.8 rating on Google and is particularly appreciated for its friendly atmosphere and its delicious pastries.
+"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2404,12 +3078,53 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you are in el alia and looking for a thrilling experience, head over to El Alia Port Marina. Located in 82RP+P3C El Alia, Ksour Essef, this top-rated place with a rating of 4.6 is the perfect destination for fans of Port de plaisance activities. It's open 24 hours a day, making it convenient for you to visit anytime. To get to El Alia Port Marina, use these GPS coordinates: (35.41808, 10.99475). For more details, visit their website at https://www.google.com/maps/place/El+Alia/data=!4m7!3m6!1s0x13018b98452eceb9:0xf4df3ec9ec9386c1!8m2!3d35.341815!4d11.035146!16s%2Fg%2F11f01qh5mt!19sChIJuc4uRZiLARMRwYaT7Mk-3_Q?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination for thrilling Port de plaisance activities in El Alia, renowned for its 4.6 rating?</t>
+          <t>Day Plan:
+Morning: Explore El Alia marina, a 4.6-rated destination with 21 reviews, offering 24-hour access.
+Mid-Morning: Try local cuisine at Aliana Restaurant, known for its ambiance and service with a 4.0 rating and 12 reviews.
+Midday: Visit Peage El Alia, a 4.0-rated tollbooth open 24/7.
+Afternoon: Engage in outdoor activities like biking or hiking at Seventy Four 74 tea room, a popular destination with a 5.0 rating and 7 reviews.
+Evening: Experience cultural immersion at Cimetriere d'El Alia, a historical landmark.
+Night: Relax with a soothing activity at a nearby spa or hotel, enjoying scenic views and indulging in self-care.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El Alia is a cafe located in el alia. It has a rating of 4.2, 13 reviews and offers a variety of services. The cafe is open from 04:00-00:00 and is closed on []. The cafe's main category is Cafe and its categories are ['Cafe']. The cafe's website is nan and its phone number is 25 832 004. The cafe's address is MFWR+3GM Cafe El Alia, place de l'independance, Soliman 8020. The cafe's coordinates are (36.739868, 10.5225008).
+Aliana Restaurant is situated at El Alia, Lebanon, it's coordinates are (33.8923939, 35.5426177). The restaurant has received a 4.0 rating based on 12 reviews. It serves various cuisines and is popular for its ambiance and service.
+Seventy Four 74 is a popular tea room located in El Alia. With a 5.0 rating based on 7 reviews, it's a highly-rated destination. Open from 6am to midnight daily, it's conveniently located at Av. Habib Bourguiba.
+**Chef Ayoub** is a fast food restaurant located in El Alia, Tunisia. It has a rating of 5.0 based on one review. The restaurant's phone number is 28 396 171, and its website is https://www.facebook.com/profile.php%3Fid%3D100055936977142.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2515,12 +3230,53 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a reliable travel agency, consider Agence de voyages EL Alia located at Avenue Farhat Hached, El Alia 7016. This top-rated destination is perfect for travel enthusiasts and offers a range of services including travel booking and visa consulting. With a rating of 3.6, it's a must-visit spot for your travel needs. It's open during these hours: 08:00-12:30, 14:00-18:00, but closed on Sundays. To get there, use these GPS coordinates: 37.1740163, 10.0297964. For more details, visit their website or call them at 72 453 493.</t>
+          <t>Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where in El Alia can you find a reputable travel agency that offers travel booking and visa consultation services?</t>
+          <t>Day Plan:
+Morning: Try local cuisine at Restaurant Tawfik &amp; Riadh
+Mid-Morning: Explore Cafe El Alia
+Midday: Visit El Alia marina
+Afternoon: Enjoy scenic views at Peage El Alia
+Evening: Shop at Agence de voyages EL Alia
+Night: Relax with a movie at Seventy Four 74</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El Alia is a cafe located in el alia. It has a rating of 4.2, 13 reviews and offers a variety of services. The cafe is open from 04:00-00:00 and is closed on []. The cafe's main category is Cafe and its categories are ['Cafe']. The cafe's website is nan and its phone number is 25 832 004. The cafe's address is MFWR+3GM Cafe El Alia, place de l'independance, Soliman 8020. The cafe's coordinates are (36.739868, 10.5225008).
+Restaurant Tawfik &amp; Riadh located in el alia (lon: 44.195835, lat: 15.350061) is a 4.5 stars rated restaurant, open from 06:30 am to 02 pm, and closed on none of the days of the week.
+Seventy Four 74 is a popular tea room located in El Alia. With a 5.0 rating based on 7 reviews, it's a highly-rated destination. Open from 6am to midnight daily, it's conveniently located at Av. Habib Bourguiba.
+"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2618,12 +3374,53 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a place of particular importance, head over to Cimetriere d'El Alia located at 52CP+VR3 Cimetriere d'El Alia, El Alia. With a rating of 4.5, this highly acclaimed Cimetiere is a popular spot among visitors. To get there, use these GPS coordinates: 37.16911, 10.03478. For any further information, you can visit their website.</t>
+          <t>Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where can you find the highly acclaimed Cimetriere d'El Alia, a place of particular importance in El Alia, as indicated by its 4.5 rating?</t>
+          <t>Day Plan:
+Morning: Exploring El Alia
+Mid-Morning: Trying local cuisine at Aliana Restaurant
+Midday: Visiting Cimetriere d'El Alia
+Afternoon: Relaxing with coffee at "Oskar"
+Evening: Participating in an event at Agence de voyages EL Alia
+Night: Enjoying scenic views at El Alia marina</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Oskar" is a 5-star rated cafe located in el alia, Tunisia, at the coordinates (37.13453, 9.96924). Featuring a cozy atmosphere, delicious coffee, and a friendly owner named Oskar, this hidden gem is the perfect spot for those seeking a relaxing and enjoyable coffee experience.
+Aliana Restaurant is situated at El Alia, Lebanon, it's coordinates are (33.8923939, 35.5426177). The restaurant has received a 4.0 rating based on 12 reviews. It serves various cuisines and is popular for its ambiance and service.
+Cafe Vienne is a tea room located in El Alia, Tunisia (37.1680428, 10.0351974). It is open every day from 5am to midnight and offers a variety of teas and other beverages. The tea room has a 4.8 rating on Google and is particularly appreciated for its friendly atmosphere and its delicious pastries.
+"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2729,12 +3526,53 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something fun to do, check out Cafe El Alia located at MFWR+3GM Cafe El Alia, place de l'independance, Soliman 8020. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 04:00-00:00. To get there, use these GPS coordinates: 36.739868, 10.5225008. For more details, visit their website or call them at 25 832 004.</t>
+          <t>Cafe El Alia is a cafe located in el alia. It has a rating of 4.2, 13 reviews and offers a variety of services. The cafe is open from 04:00-00:00 and is closed on []. The cafe's main category is Cafe and its categories are ['Cafe']. The cafe's website is nan and its phone number is 25 832 004. The cafe's address is MFWR+3GM Cafe El Alia, place de l'independance, Soliman 8020. The cafe's coordinates are (36.739868, 10.5225008).</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe with a variety of options and a convenient location in el alia?</t>
+          <t>Day Plan:
+Morning: Exploring El Alia marina 
+Mid-Morning: Trying local cuisine at Aliana Restaurant
+Midday: Visiting Cimetriere d'El Alia 
+Afternoon: Enjoying scenic views at Peage El Alia
+Evening: Relaxing with a tea at Seventy Four 74
+Night: Participating in a guided tour of Agence de voyages EL Alia</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Oskar" is a 5-star rated cafe located in el alia, Tunisia, at the coordinates (37.13453, 9.96924). Featuring a cozy atmosphere, delicious coffee, and a friendly owner named Oskar, this hidden gem is the perfect spot for those seeking a relaxing and enjoyable coffee experience.
+Aliana Restaurant, located in el alia. It is a restaurant that offers a variety of dishes. The restaurant is well-rated, with a rating of 4.0 out of 5. It is open 7 days a week and can be contacted at 23 349 082.
+Seventy Four 74 is a popular tea room located in El Alia. With a 5.0 rating based on 7 reviews, it's a highly-rated destination. Open from 6am to midnight daily, it's conveniently located at Av. Habib Bourguiba.
+"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2840,14 +3678,53 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a great Cafe, check out cafe El Alia located at RWPR+8M8 cafe El Alia, Jedeida. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 05:00-01:00. To get there, use these GPS coordinates: 36.8503161, 9.9355435. For more details, visit their website at https://lh5.googleusercontent.com/p/AF1QipN5-GW_RL3N2W5XJCr2FSzTjx9jWJVc71f2dcZj=w426-h240-k-no or call them at 90 064 322.</t>
+          <t>Café El Alia is a cozy cafe located in Jedeida, with a rating of 4.4 based on 5 reviews. It opens from 5:00 AM to 1:00 AM every day. Despite not having a known website or description, the cafe's featured image showcases an inviting ambiance. It specializes in cafe offerings and is easily accessible at its location at RWPR+8M8.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where in El Alia can you find a renowned café with a high rating and a wide selection of coffee options?</t>
+          <t>Day Plan:
+Morning: Explore El Alia Marina
+Mid-Morning: Try local cuisine at Restaurant Tawfik &amp; Riadh
+Midday: Visit Chef Ayoub for a quick lunch
+Afternoon: Enjoy scenic views at Peage El Alia
+Evening: Experience cultural immersion at Cimetriere d'El Alia
+Night: Relax with a tea at Seventy Four 74</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Nassim is a cafe located in El Alia. It offers a 5-star service, along with a convenient 24h opening time. Its exact location is (37.1680428, 10.0351974).
+Restaurant Tawfik &amp; Riadh located in el alia (lon: 44.195835, lat: 15.350061) is a 4.5 stars rated restaurant, open from 06:30 am to 02 pm, and closed on none of the days of the week.
+Seventy Four 74 is a popular tea room located in El Alia. With a 5.0 rating based on 7 reviews, it's a highly-rated destination. Open from 6am to midnight daily, it's conveniently located at Av. Habib Bourguiba.
+"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2949,16 +3826,53 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a top-rated Restaurant, check out Aliana Restaurant located at Aliana Restaurant, El Alia. 
-This destination offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 33.8923939, 35.5426177. 
-For more details, visit their website or call them at 23 349 082.</t>
+          <t>Aliana Restaurant, located in el alia. It is a restaurant that offers a variety of dishes. The restaurant is well-rated, with a rating of 4.0 out of 5. It is open 7 days a week and can be contacted at 23 349 082.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Which highly-rated restaurant in El Alia is known for its diverse cuisine and is easily accessible via GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Exploring Marina at El Alia
+Mid-Morning: Trying Local Cuisine at Cafe Aziz
+Midday: Visiting Religious Landmark at Cimetriere d'El Alia
+Afternoon: Enjoying Scenic Views at Peage El Alia
+Evening: Participating in Event at Agence de voyages EL Alia
+Night: Relaxing at Cafe Vienne</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Cafe Aziz is located in el alia, Tunisia (37.1680428, 10.0351974). It has a 4.5 rating based on 2 reviews and its main category is Cafe.
+Restaurant et pizzeria SOLTan Fathi is a restaurant located in el alia, Morocco. Its main category is Restaurant and it offers a range of dishes. The restaurant is highly rated, with a rating of 5.0 out of 5. It is located at the coordinates (33.5910711, -7.5687025).
+Cafe Vienne is a tea room located in El Alia, Tunisia (37.1680428, 10.0351974). It is open every day from 5am to midnight and offers a variety of teas and other beverages. The tea room has a 4.8 rating on Google and is particularly appreciated for its friendly atmosphere and its delicious pastries.
+**Chef Ayoub** is a fast food restaurant located in El Alia, Tunisia. It has a rating of 5.0 based on one review. The restaurant's phone number is 28 396 171, and its website is https://www.facebook.com/profile.php%3Fid%3D100055936977142.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3064,16 +3978,66 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a great Restaurant, check out Restaurant Tawfik &amp; Riadh located at 52CG+JXV Restaurant Tawfik &amp; Riadh, Av. Habib Bourguiba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:30-14:00, but closed on []. 
-To get there, use these GPS coordinates: 15.350061, 44.195835. 
-For more details, call them at 94 151 748.</t>
+          <t>Restaurant Tawfik &amp; Riadh located in el alia (lon: 44.195835, lat: 15.350061) is a 4.5 stars rated restaurant, open from 06:30 am to 02 pm, and closed on none of the days of the week.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant with a wide selection of categories in el alia that is known for its excellent cuisine?</t>
+          <t>Day Plan:
+Morning:
+- Visit El Alia Marina (Exploring [Location])
+- Take a guided tour of Agence de voyages EL Alia (Taking a guided tour of [Attraction])
+Mid-Morning:
+- Explore Cimetriere d'El Alia (Exploring [Location])
+- Pay respects at Peage El Alia (Visiting [Landmark])
+Midday:
+- Try local cuisine at Restaurant Tawfik &amp; Riadh (Trying local cuisine at [Restaurant])
+- Indulge in the popular tea room Seventy Four 74 (Enjoying [Recreational Activity] at [Park/Beach])
+Afternoon:
+- Visit "Chef Ayoub" for a delectable fast food experience (Trying local cuisine at [Restaurant])
+- Find souvenirs and local goods at the vibrant market (Shopping at [Market/Mall])
+Evening:
+- Enjoy dinner at Venezia Cafe for a romantic ambiance (Trying local cuisine at [Restaurant])
+- Bask in the sunset views at a scenic spot (Enjoying scenic views at [Scenic Spot])
+Night:
+- Relax at the spa with a rejuvenating treatment (Relaxing with [Activity] at [Spa/Hotel])
+- Experience the vibrant nightlife with live music (Participating in [Event/Activity] at [Venue])</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Venezia is a popular Cafe located in el alia at the coordinates (37.1701233, 10.0328689). 
+It has a rating of 4.3 and operates during the following hours: 04:00-00:00.
+Restaurant Tawfik &amp; Riadh located in el alia (lon: 44.195835, lat: 15.350061) is a 4.5 stars rated restaurant, open from 06:30 am to 02 pm, and closed on none of the days of the week.
+Seventy Four 74 is a popular tea room located in El Alia. With a 5.0 rating based on 7 reviews, it's a highly-rated destination. Open from 6am to midnight daily, it's conveniently located at Av. Habib Bourguiba.
+"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3179,12 +4143,53 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something fun to do, check out chef Ayoub located at 529H+36F chef Ayoub, nhj ldktwr mHmwd lmTry,, El Alia. This top-rated destination is perfect for Restauration rapide lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1680428, 10.0351974. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100055936977142 or call them at 28 396 171.</t>
+          <t>"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where in El Alia can you find a highly-rated spot for Restauration rapide, with a perfect rating of 5.0, making it a must-visit destination?</t>
+          <t>Day Plan:
+Morning: Exploring El Alia Marina
+Mid-Morning: Trying local cuisine at Cafe Nassim
+Midday: Visiting Cimetriere d'El Alia
+Afternoon: Relaxing with a tea at Cafe Vienne
+Evening: Enjoying scenic views at Peage El Alia
+Night: Participating in an event or activity at Agence de voyages EL Alia</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Nassim is a cafe located in El Alia. It offers a 5-star service, along with a convenient 24h opening time. Its exact location is (37.1680428, 10.0351974).
+Aliana Restaurant, located in el alia. It is a restaurant that offers a variety of dishes. The restaurant is well-rated, with a rating of 4.0 out of 5. It is open 7 days a week and can be contacted at 23 349 082.
+Cafe Vienne is a tea room located in El Alia, Tunisia (37.1680428, 10.0351974). It is open every day from 5am to midnight and offers a variety of teas and other beverages. The tea room has a 4.8 rating on Google and is particularly appreciated for its friendly atmosphere and its delicious pastries.
+"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3286,12 +4291,53 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something to eat, explore Restaurant et pizzeria SOLTan Fathi. The location is 528H+8XJ Restaurant et pizzeria SOLTan Fathi, El Alia. This top-rated destination is perfect for Restaurant lovers with a rating of 5.0. You can contact them at 28 396 171 for more details.</t>
+          <t>Restaurant et pizzeria SOLTan Fathi is a restaurant located in el alia, Morocco. Its main category is Restaurant and it offers a range of dishes. The restaurant is highly rated, with a rating of 5.0 out of 5. It is located at the coordinates (33.5910711, -7.5687025).</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant with a convenient location in El Alia that offers culinary delights for Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the bustling El Alia market for local crafts and produce.
+Mid-Morning: Visit the Cimetriere d'El Alia, a historic cemetery offering a glimpse into the past.
+Midday: Savor authentic Tunisian cuisine at the highly-rated Restaurant et pizzeria SOLTan Fathi.
+Afternoon: Take a guided tour of the El Alia marina, admiring the yachts and seaside views.
+Evening: Enjoy panoramic views from the scenic Peage El Alia tollbooth.
+Night: Relax and unwind at the Seventy Four 74 tea room, enjoying traditional tea and refreshments.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Le Kafee 7016" is a cafe located in el alia, Tunisia. Its coordinates are (37.170874214467, 10.0303565426). The cafe is open from 4:00 am to 10:00 pm, and it is closed on Thursdays. It has a rating of 5.0 stars out of 5 based on 5 reviews.
+Restaurant et pizzeria SOLTan Fathi is a restaurant located in el alia, Morocco. Its main category is Restaurant and it offers a range of dishes. The restaurant is highly rated, with a rating of 5.0 out of 5. It is located at the coordinates (33.5910711, -7.5687025).
+Seventy Four 74 is a popular tea room located in El Alia. With a 5.0 rating based on 7 reviews, it's a highly-rated destination. Open from 6am to midnight daily, it's conveniently located at Av. Habib Bourguiba.
+"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3397,16 +4443,53 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something to do, check out Peage El Alia located at 525F+R98 Peage El Alia, El Alia. 
-This top-rated destination is perfect for Poste de peage lovers and offers a range of Poste de peage to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. 
-To get there, use these GPS coordinates: 37.16911, 10.03478. 
-For more details, visit their website at  or call them at 70 555 780.</t>
+          <t>Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where in El Alia can you find a highly rated destination with a variety of Poste de peage options?</t>
+          <t>Day Plan:
+Morning: Explore El Alia Marina (Scenic views and ambiance)
+Mid-Morning: Try local cuisine at Café YABBA (Delicious coffee and cozy atmosphere)
+Midday: Visit Cimetriere d'El Alia (Cultural immersion and historical significance)
+Afternoon: Enjoy a tea at Seventy Four 74 (Highly-rated and conveniently located)
+Evening: Savor a meal at Aliana Restaurant (Authentic ambiance and service)
+Night: Experience the nightlife at Peage El Alia (4.0 rating and open 24/7)</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café YABBA is a café located at Rue du Maghrebe Arabe, El Alia, Morocco. It is known for its cozy atmosphere and delicious coffee. The café offers a variety of coffee drinks, as well as pastries and other snacks. It is a popular spot for locals and tourists alike. The café is open from 5:30am to 11:00pm, seven days a week.
+Aliana Restaurant is situated at El Alia, Lebanon, it's coordinates are (33.8923939, 35.5426177). The restaurant has received a 4.0 rating based on 12 reviews. It serves various cuisines and is popular for its ambiance and service.
+Seventy Four 74 is a popular tea room located in El Alia. With a 5.0 rating based on 7 reviews, it's a highly-rated destination. Open from 6am to midnight daily, it's conveniently located at Av. Habib Bourguiba.
+**Chef Ayoub** is a fast food restaurant located in El Alia, Tunisia. It has a rating of 5.0 based on one review. The restaurant's phone number is 28 396 171, and its website is https://www.facebook.com/profile.php%3Fid%3D100055936977142.
+El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.
+Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.
+Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).
+Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
